--- a/Project Z/Objectives/Obiettivi personali.xlsx
+++ b/Project Z/Objectives/Obiettivi personali.xlsx
@@ -109,7 +109,7 @@
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -152,6 +152,12 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -317,7 +323,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -390,7 +396,10 @@
     <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="59" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -417,7 +426,7 @@
     <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -444,6 +453,7 @@
       <rgbColor rgb="ffdbdbdb"/>
       <rgbColor rgb="ff60d836"/>
       <rgbColor rgb="fff8ba00"/>
+      <rgbColor rgb="fffefefe"/>
       <rgbColor rgb="ffed220b"/>
     </indexedColors>
   </colors>
@@ -1639,13 +1649,13 @@
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="24"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="25">
+      <c r="F7" s="25"/>
+      <c r="G7" s="26">
         <v>42135</v>
       </c>
       <c r="H7" s="23"/>
       <c r="I7" s="23"/>
-      <c r="J7" t="s" s="26">
+      <c r="J7" t="s" s="27">
         <v>6</v>
       </c>
     </row>
@@ -1679,8 +1689,8 @@
     </row>
     <row r="10" ht="20.05" customHeight="1">
       <c r="A10" s="13"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="29"/>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
@@ -1693,15 +1703,15 @@
     </row>
     <row r="11" ht="20.85" customHeight="1">
       <c r="A11" s="20"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="31"/>
       <c r="D11" s="23"/>
       <c r="E11" s="23"/>
       <c r="F11" s="23"/>
       <c r="G11" s="23"/>
       <c r="H11" s="23"/>
       <c r="I11" s="23"/>
-      <c r="J11" t="s" s="26">
+      <c r="J11" t="s" s="27">
         <v>17</v>
       </c>
     </row>
@@ -1735,8 +1745,8 @@
     </row>
     <row r="14" ht="20.05" customHeight="1">
       <c r="A14" s="13"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="28"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="29"/>
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
@@ -1749,15 +1759,15 @@
     </row>
     <row r="15" ht="20.85" customHeight="1">
       <c r="A15" s="20"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="31"/>
       <c r="D15" s="23"/>
       <c r="E15" s="23"/>
       <c r="F15" s="23"/>
       <c r="G15" s="23"/>
       <c r="H15" s="23"/>
       <c r="I15" s="23"/>
-      <c r="J15" t="s" s="26">
+      <c r="J15" t="s" s="27">
         <v>18</v>
       </c>
     </row>
@@ -1791,8 +1801,8 @@
     </row>
     <row r="18" ht="20.05" customHeight="1">
       <c r="A18" s="13"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="28"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="29"/>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
@@ -1805,15 +1815,15 @@
     </row>
     <row r="19" ht="20.85" customHeight="1">
       <c r="A19" s="20"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="30"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="31"/>
       <c r="D19" s="23"/>
       <c r="E19" s="23"/>
       <c r="F19" s="23"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
       <c r="I19" s="23"/>
-      <c r="J19" t="s" s="26">
+      <c r="J19" t="s" s="27">
         <v>19</v>
       </c>
     </row>
@@ -1833,13 +1843,13 @@
     </row>
     <row r="21" ht="32.25" customHeight="1">
       <c r="A21" s="8"/>
-      <c r="B21" t="s" s="31">
+      <c r="B21" t="s" s="32">
         <v>10</v>
       </c>
-      <c r="C21" t="s" s="32">
+      <c r="C21" t="s" s="33">
         <v>21</v>
       </c>
-      <c r="D21" s="33"/>
+      <c r="D21" s="34"/>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
       <c r="G21" t="s" s="11">
@@ -1853,8 +1863,8 @@
     </row>
     <row r="22" ht="20.05" customHeight="1">
       <c r="A22" s="13"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="28"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="29"/>
       <c r="D22" s="16"/>
       <c r="E22" s="16"/>
       <c r="F22" s="16"/>
@@ -1867,8 +1877,8 @@
     </row>
     <row r="23" ht="20.05" customHeight="1">
       <c r="A23" s="13"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="28"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="29"/>
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
       <c r="F23" s="16"/>
